--- a/excel originais/Analise.xlsx
+++ b/excel originais/Analise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\R Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\R Excel\excel originais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B9AAF6-1FE5-4310-A402-385F5C24ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CFDF6-F7F3-4538-B12F-1732D23296BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{A43A3402-B091-4EB4-A22F-7847D83C126F}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="11520" windowHeight="12360" xr2:uid="{A43A3402-B091-4EB4-A22F-7847D83C126F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>P</t>
   </si>
@@ -50,45 +50,68 @@
     <t>Mg</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Zn</t>
-  </si>
-  <si>
-    <t>S(0-20)</t>
-  </si>
-  <si>
-    <t>S(20-40)</t>
-  </si>
-  <si>
     <t>H+Al</t>
   </si>
   <si>
-    <t>pH (SMP)</t>
-  </si>
-  <si>
-    <t>CTC(pH 7,0)</t>
-  </si>
-  <si>
-    <t>Argila(%)</t>
-  </si>
-  <si>
     <t>Amostra(nº.)</t>
+  </si>
+  <si>
+    <t>ARGILA</t>
+  </si>
+  <si>
+    <t>PH-AGUA</t>
+  </si>
+  <si>
+    <t>INDICE SMP</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>CTC ph 7</t>
+  </si>
+  <si>
+    <t>Ca/mg</t>
+  </si>
+  <si>
+    <t>Ca/k</t>
+  </si>
+  <si>
+    <t>Mg/K</t>
+  </si>
+  <si>
+    <t>Al Saturação</t>
+  </si>
+  <si>
+    <t>V Saturação</t>
+  </si>
+  <si>
+    <t>Soma de Bases S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -112,23 +135,344 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="46">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -139,6 +483,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2B401EC9-77B0-4641-963C-C608464D5AD4}" name="Tabela2" displayName="Tabela2" ref="A2:V1048576" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{4705D479-4853-4971-B486-E42BC6FDCBF6}" name="Coluna1" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{A3C495FD-23E3-4D82-802D-11151732752C}" name="%" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{518296D1-7912-4391-96A6-23F9CFFE999C}" name="01:01" headerRowDxfId="39" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{31D76607-282A-4D83-A246-33C12DB8119C}" name="Coluna2" headerRowDxfId="37" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{34386C74-E29C-4A04-BD8A-9B08247D492E}" name="mg/dm3" headerRowDxfId="35" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{16964306-E579-46FA-A165-F5BA4834F2A5}" name="mg/dm33" headerRowDxfId="33" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{92DB0257-53ED-4760-A979-A91CCE55412C}" name="%4" headerRowDxfId="31" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{FCE29AFF-6472-410F-A86F-25378588A1BF}" name="cmolc/dm3" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{EF4344B0-F6D0-42F7-8250-32B37FE77C25}" name="cmolc/dm35" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{FB1F2F16-FA93-48AE-822D-D55A8ABCBB97}" name="cmolc/dm36" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{BC64C671-8054-4F74-B996-A2AB943491A2}" name="cmolc/dm37" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{B455EFC6-9A31-4BC2-8187-97B8B84F30A0}" name="cmolc/dm38" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{4278DF86-3626-4AB6-8225-7F309B844AA8}" name="%Saturação na CTC" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{F1902890-99FB-42B8-B3F8-C5B85BFB7410}" name="Coluna9" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{0AFC7061-19BA-473F-B9EF-B06178613EFB}" name="soma bases" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{0F9B19FC-C385-43E6-B0FD-366EF2B00B78}" name="Relações" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{33EDAD60-F846-4651-8870-AD70AE545636}" name="Coluna10" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{0887F2B2-B831-4A70-8738-676EADA7CC33}" name="Coluna11" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{D7602831-91DE-46F3-BFE9-D014B58CD8FE}" name="Coluna12" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{8305B1B6-047E-4793-9101-303376B9FD6E}" name="Coluna13" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{4159A594-30C1-4C20-BC31-4BD2D43EBB49}" name="Coluna14" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{CD73F416-6B41-4BFB-9D14-380F99F57FE6}" name="Coluna15" headerRowDxfId="1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,131 +812,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39253D26-AC02-4672-BB31-DDDB5D97DB5A}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5546875" style="1" customWidth="1"/>
+    <col min="19" max="22" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>28.57</v>
+      </c>
+      <c r="M3" s="1">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="N3" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>8.77</v>
+      </c>
+      <c r="R3" s="1">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" s="2">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="M4" s="1">
+        <v>33.9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>24.64</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>20.12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="M5" s="1">
+        <v>56.78</v>
+      </c>
+      <c r="N5" s="1">
+        <v>12.29</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="R5" s="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1"/>
+      <c r="B6" s="2">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>22.33</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="N6" s="1">
+        <v>63.71</v>
+      </c>
+      <c r="O6" s="1">
+        <v>14.23</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="R6" s="1">
+        <v>28.66</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L2" s="1">
-        <v>100</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="P2" s="2"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>32</v>
-      </c>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>